--- a/src/assets/samples/ImportTerminalSample.xlsx
+++ b/src/assets/samples/ImportTerminalSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afaqy\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afaqy\Downloads\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443E6C6B-DB5E-471B-8DB9-CDE0030CA29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E33AD6-A1D1-4D4E-A629-7338F2835EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB614EC1-9718-4EF7-A5B5-5A16379C7739}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{BB614EC1-9718-4EF7-A5B5-5A16379C7739}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,18 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>MerchantId</t>
-  </si>
-  <si>
-    <t>TerminalId</t>
-  </si>
-  <si>
-    <t>ErrandChannelId</t>
-  </si>
-  <si>
-    <t>POSTypeId</t>
-  </si>
-  <si>
     <t>PhoneNumber</t>
   </si>
   <si>
@@ -48,13 +36,25 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>ZoneId</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
     <t>Landmark</t>
+  </si>
+  <si>
+    <t>ErrandChannel</t>
+  </si>
+  <si>
+    <t>POSType</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>Terminal ID</t>
+  </si>
+  <si>
+    <t>Merchant ID</t>
   </si>
 </sst>
 </file>
@@ -416,53 +416,53 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
